--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Client/BulkDebtMailingReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Client/BulkDebtMailingReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lfey\source\repos\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA474C76-A451-42E3-A8FB-F0AC2261F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A8A18-FBC7-4E43-B6AE-6B191CC41FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15900" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +143,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +496,7 @@
   <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -514,14 +526,14 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:1020" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:1020" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1589,8 +1601,9 @@
     </row>
     <row r="5" spans="1:1020" ht="11.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
